--- a/public/xlsx/participants.xlsx
+++ b/public/xlsx/participants.xlsx
@@ -89,39 +89,40 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.2561797752809"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.28988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.28988764044944"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.0561797752809"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.18988764044944"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.8561797752809"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="42.8561797752809"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.4561797752809"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.18988764044944"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="42.8561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.4561797752809"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="23.0561797752809"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="28.4561797752809"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.4561797752809"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="26.6561797752809"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="8.656179775280899"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0561797752809"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.2561797752809"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.0561797752809"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.4561797752809"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="183.48988764044947"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.4561797752809"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.0561797752809"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="21.2561797752809"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="33.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.0561797752809"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="30.2561797752809"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="183.48988764044947"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="21.2561797752809"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -135,135 +136,140 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
+          <t>No.</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
           <t>Registro</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Fecha de registro</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Nombre</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Apellidos</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Correo</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>Teléfono(s)</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>Institución empresa en donde labora</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>Costo</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>Titulo de licenciatura</t>
         </is>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>Titulo de Maestría</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>Título de Doctorado</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t>Requiere factura</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>Nombre o razón social</t>
         </is>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>RFC</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>Dirección Fiscal</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
         <is>
           <t>Ciudad</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>Municipio</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>Estado</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>Razones por la que desea asisitir al curso</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>Tipo de sangre</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
         <is>
           <t>Traera computadora</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>Ya ha tomado el curso antes</t>
         </is>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>Idioma</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Z3" s="4" t="inlineStr">
         <is>
           <t>Ficha de depósito</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="inlineStr">
+      <c r="AA3" s="4" t="inlineStr">
         <is>
           <t>Carte de recomendación</t>
         </is>
       </c>
-      <c r="AA3" s="4" t="inlineStr">
+      <c r="AB3" s="4" t="inlineStr">
         <is>
           <t>Carta de motivos</t>
         </is>
@@ -271,42 +277,40 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>41858.34250753924</v>
       </c>
-      <c r="C4" s="0" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>Ramón</t>
         </is>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>Martínez Olvera</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>martinezo@inb.unam.mx</t>
         </is>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>2381052</v>
       </c>
-      <c r="G4" s="0" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>INB-UNAM</t>
         </is>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>1500.0</v>
       </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
           <t/>
@@ -317,14 +321,14 @@
           <t/>
         </is>
       </c>
-      <c r="L4" s="0" t="b">
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M4" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="M4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="N4" s="0" t="inlineStr">
         <is>
           <t/>
@@ -347,44 +351,49 @@
       </c>
       <c r="R4" s="0" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S4" s="0" t="inlineStr">
+        <is>
           <t>Campeche</t>
         </is>
       </c>
-      <c r="S4" s="0" t="inlineStr">
+      <c r="T4" s="0" t="inlineStr">
         <is>
           <t>smdsa jasdlk ajs akjd lkja añlfm sd. wdnmdsm, sjfnjksd sdfjk snbsd sdjfb sdbfjk lsdhflkjsdf lksmdsa jasdlk ajs akjd lkja añlfm sd. wdnmdsm, sjfnjksd sdfjk snbsd sdjfb sdbfjk lsdhflkjsdf lksmdsa jasdlk ajs akjd lkja añlfm sd. wdnmdsm, sjfnjksd sdfjk snbsd sdjfb sdbfjk lsdhflkjsdf lksmdsa jasdlk ajs akjd lkja añlfm sd. wdnmdsm, sjfnjksd sdfjk snbsd sdjfb sdbfjk lsdhflkjsdf lk</t>
         </is>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="U4" s="0" t="inlineStr">
+      <c r="V4" s="0" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="V4" s="0" t="b">
+      <c r="W4" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="W4" s="0" t="b">
+      <c r="X4" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="X4" s="0" t="inlineStr">
+      <c r="Y4" s="0" t="inlineStr">
         <is>
           <t> Español</t>
         </is>
       </c>
-      <c r="Y4" s="0" t="inlineStr">
+      <c r="Z4" s="0" t="inlineStr">
         <is>
           <t>daniela_sticker.psd</t>
         </is>
       </c>
-      <c r="Z4" s="0" t="inlineStr">
+      <c r="AA4" s="0" t="inlineStr">
         <is>
           <t>emiliano_stickers.psd</t>
         </is>
       </c>
-      <c r="AA4" s="0" t="inlineStr">
+      <c r="AB4" s="0" t="inlineStr">
         <is>
           <t>david_sticker.psd</t>
         </is>

--- a/public/xlsx/participants.xlsx
+++ b/public/xlsx/participants.xlsx
@@ -89,7 +89,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:BE6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -99,35 +99,65 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="27.28988764044944"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="14.0561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.0561797752809"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.18988764044944"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="15.8561797752809"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="42.8561797752809"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="10.4561797752809"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.0561797752809"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="23.0561797752809"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="28.4561797752809"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.4561797752809"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="26.6561797752809"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="8.656179775280899"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0561797752809"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.2561797752809"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.0561797752809"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.4561797752809"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="183.48988764044947"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.4561797752809"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.0561797752809"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="21.2561797752809"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="33.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.0561797752809"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="30.2561797752809"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="27.28988764044944"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="20.68988764044944"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="35" max="35" bestFit="false" customWidth="false"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="10.78988764044944"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="10.78988764044944"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="27.28988764044944"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="14.08988764044944"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="3.089887640449438"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="3.089887640449438"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Workshop HTM with bootstrap (18 de agosto de 2014)</t>
+          <t>SAP HANA (11 de julio de 2014)</t>
         </is>
       </c>
     </row>
@@ -175,106 +205,66 @@
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>Titulo de licenciatura</t>
+          <t>Requiere factura</t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t>Titulo de Maestría</t>
+          <t>Nombre o razón social</t>
         </is>
       </c>
       <c r="K3" s="4" t="inlineStr">
         <is>
-          <t>Título de Doctorado</t>
+          <t>RFC</t>
         </is>
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
-          <t>Requiere factura</t>
+          <t>Dirección Fiscal</t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
         <is>
-          <t>Nombre o razón social</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="N3" s="4" t="inlineStr">
         <is>
-          <t>RFC</t>
+          <t>Municipio</t>
         </is>
       </c>
       <c r="O3" s="4" t="inlineStr">
         <is>
-          <t>Dirección Fiscal</t>
+          <t>Estado</t>
         </is>
       </c>
       <c r="P3" s="4" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Prueba de texto lago</t>
         </is>
       </c>
       <c r="Q3" s="4" t="inlineStr">
         <is>
-          <t>Municipio</t>
+          <t>Subir archivo 1</t>
         </is>
       </c>
       <c r="R3" s="4" t="inlineStr">
         <is>
-          <t>Estado</t>
+          <t>Subir archivo 2</t>
         </is>
       </c>
       <c r="S3" s="4" t="inlineStr">
         <is>
-          <t>Razones por la que desea asisitir al curso</t>
-        </is>
-      </c>
-      <c r="T3" s="4" t="inlineStr">
-        <is>
-          <t>Edad</t>
-        </is>
-      </c>
-      <c r="U3" s="4" t="inlineStr">
-        <is>
-          <t>Tipo de sangre</t>
-        </is>
-      </c>
-      <c r="V3" s="4" t="inlineStr">
-        <is>
-          <t>Traera computadora</t>
-        </is>
-      </c>
-      <c r="W3" s="4" t="inlineStr">
-        <is>
-          <t>Ya ha tomado el curso antes</t>
-        </is>
-      </c>
-      <c r="X3" s="4" t="inlineStr">
-        <is>
-          <t>Idioma</t>
-        </is>
-      </c>
-      <c r="Y3" s="4" t="inlineStr">
-        <is>
-          <t>Ficha de depósito</t>
-        </is>
-      </c>
-      <c r="Z3" s="4" t="inlineStr">
-        <is>
-          <t>Carte de recomendación</t>
-        </is>
-      </c>
-      <c r="AA3" s="4" t="inlineStr">
-        <is>
-          <t>Carta de motivos</t>
+          <t>Subir archivo 3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>41858.34250753924</v>
+        <v>41849.90120181431</v>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
@@ -288,24 +278,24 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>martinezo@inb.unam.mx</t>
-        </is>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>2381052</v>
+          <t/>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>INB-UNAM</t>
+          <t/>
         </is>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>3000.0</v>
+      </c>
+      <c r="I4" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
@@ -317,76 +307,463 @@
           <t/>
         </is>
       </c>
-      <c r="L4" s="0" t="b">
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O4" s="0" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R4" s="0" t="inlineStr">
+        <is>
+          <t>Participants(1).xlsx</t>
+        </is>
+      </c>
+      <c r="S4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>41849.90120181431</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>Ramón</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Martínez Olvera</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="I5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O5" s="0" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R5" s="0" t="inlineStr">
+        <is>
+          <t>Participants(1).xlsx</t>
+        </is>
+      </c>
+      <c r="S5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R4" s="0" t="inlineStr">
-        <is>
-          <t>Campeche</t>
-        </is>
-      </c>
-      <c r="S4" s="0" t="inlineStr">
-        <is>
-          <t>smdsa jasdlk ajs akjd lkja añlfm sd. wdnmdsm, sjfnjksd sdfjk snbsd sdjfb sdbfjk lsdhflkjsdf lksmdsa jasdlk ajs akjd lkja añlfm sd. wdnmdsm, sjfnjksd sdfjk snbsd sdjfb sdbfjk lsdhflkjsdf lksmdsa jasdlk ajs akjd lkja añlfm sd. wdnmdsm, sjfnjksd sdfjk snbsd sdjfb sdbfjk lsdhflkjsdf lksmdsa jasdlk ajs akjd lkja añlfm sd. wdnmdsm, sjfnjksd sdfjk snbsd sdjfb sdbfjk lsdhflkjsdf lk</t>
-        </is>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="U4" s="0" t="inlineStr">
-        <is>
-          <t>B+</t>
-        </is>
-      </c>
-      <c r="V4" s="0" t="b">
+      <c r="U5" s="2">
+        <v>41848.94285318433</v>
+      </c>
+      <c r="V5" s="0" t="inlineStr">
+        <is>
+          <t>Roberto</t>
+        </is>
+      </c>
+      <c r="W5" s="0" t="inlineStr">
+        <is>
+          <t>Martínez Olvera</t>
+        </is>
+      </c>
+      <c r="X5" s="0" t="inlineStr">
+        <is>
+          <t>rmartinez1006@prodigy.net.mx</t>
+        </is>
+      </c>
+      <c r="Y5" s="0" t="inlineStr">
+        <is>
+          <t>345-23-11-12</t>
+        </is>
+      </c>
+      <c r="Z5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="AB5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH5" s="0" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="0" t="inlineStr">
+        <is>
+          <t>Snagit.dmg</t>
+        </is>
+      </c>
+      <c r="AK5" s="0" t="inlineStr">
+        <is>
+          <t>imagen2.jpg</t>
+        </is>
+      </c>
+      <c r="AL5" s="0" t="inlineStr">
+        <is>
+          <t>imagen3.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>41849.90120181431</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Ramón</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Martínez Olvera</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="I6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O6" s="0" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R6" s="0" t="inlineStr">
+        <is>
+          <t>Participants(1).xlsx</t>
+        </is>
+      </c>
+      <c r="S6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W4" s="0" t="b">
+      <c r="U6" s="2">
+        <v>41848.94285318433</v>
+      </c>
+      <c r="V6" s="0" t="inlineStr">
+        <is>
+          <t>Roberto</t>
+        </is>
+      </c>
+      <c r="W6" s="0" t="inlineStr">
+        <is>
+          <t>Martínez Olvera</t>
+        </is>
+      </c>
+      <c r="X6" s="0" t="inlineStr">
+        <is>
+          <t>rmartinez1006@prodigy.net.mx</t>
+        </is>
+      </c>
+      <c r="Y6" s="0" t="inlineStr">
+        <is>
+          <t>345-23-11-12</t>
+        </is>
+      </c>
+      <c r="Z6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="AB6" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="X4" s="0" t="inlineStr">
-        <is>
-          <t> Español</t>
-        </is>
-      </c>
-      <c r="Y4" s="0" t="inlineStr">
-        <is>
-          <t>daniela_sticker.psd</t>
-        </is>
-      </c>
-      <c r="Z4" s="0" t="inlineStr">
-        <is>
-          <t>emiliano_stickers.psd</t>
-        </is>
-      </c>
-      <c r="AA4" s="0" t="inlineStr">
-        <is>
-          <t>david_sticker.psd</t>
+      <c r="AC6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH6" s="0" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
+      <c r="AI6" s="0"/>
+      <c r="AJ6" s="0" t="inlineStr">
+        <is>
+          <t>Snagit.dmg</t>
+        </is>
+      </c>
+      <c r="AK6" s="0" t="inlineStr">
+        <is>
+          <t>imagen2.jpg</t>
+        </is>
+      </c>
+      <c r="AL6" s="0" t="inlineStr">
+        <is>
+          <t>imagen3.jpg</t>
+        </is>
+      </c>
+      <c r="AM6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>41850.9183953019</v>
+      </c>
+      <c r="AO6" s="0" t="inlineStr">
+        <is>
+          <t>Rodolfo</t>
+        </is>
+      </c>
+      <c r="AP6" s="0" t="inlineStr">
+        <is>
+          <t>Hernandez Herrera</t>
+        </is>
+      </c>
+      <c r="AQ6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT6" s="0" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="AU6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA6" s="0" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
+      <c r="BB6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BD6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE6" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
